--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420170A0-08AF-4D64-BE5F-9BA4D54B6DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE575429-D6F8-4CCE-B2FC-30D935C63D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="11535" yWindow="3690" windowWidth="10710" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE575429-D6F8-4CCE-B2FC-30D935C63D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EFF19-49AF-4977-8114-94475DA1A198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="3690" windowWidth="10710" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복숭아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요괴불꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
   </si>
   <si>
     <t>불멸석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,10 +478,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -497,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>600000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -517,16 +509,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -537,16 +529,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -557,58 +549,18 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>73</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <v>300</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EFF19-49AF-4977-8114-94475DA1A198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E492B0-4675-4E15-BFA9-64425F8450AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38850" yWindow="960" windowWidth="20025" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>불멸석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +463,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,6 +519,12 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -522,6 +544,12 @@
       </c>
       <c r="F3">
         <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -543,6 +571,12 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -562,6 +596,12 @@
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E492B0-4675-4E15-BFA9-64425F8450AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45100A9-350C-4C5D-BF69-5A663290CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38850" yWindow="960" windowWidth="20025" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -534,7 +534,7 @@
         <v>46</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45100A9-350C-4C5D-BF69-5A663290CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FA1C05-35DF-4DE8-87ED-7CB5D6366F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>mff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,6 +612,32 @@
         <v>200</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9001</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FA1C05-35DF-4DE8-87ED-7CB5D6366F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02B1BA-75AF-4CB3-BABC-640C99D8ABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
